--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ACF3F9-4E0A-4A52-8C54-B02932528CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3CA22-CFB2-4223-A68D-92799E0464B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
+    <t>telefono</t>
+  </si>
+  <si>
     <t>nombre</t>
   </si>
   <si>
     <t>Gustavo</t>
-  </si>
-  <si>
-    <t>telefono</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,10 +431,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -442,7 +442,7 @@
         <v>5491161405589</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C3CA22-CFB2-4223-A68D-92799E0464B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1BEABB-B272-4C27-A645-87D5D235897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5491161405589</v>
+        <v>5491159911742</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1BEABB-B272-4C27-A645-87D5D235897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A75ACA-1195-40CA-8185-D8DA30942870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A75ACA-1195-40CA-8185-D8DA30942870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBCA9FE-DA05-4AFE-A6C6-FC5492A5C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Gustavo</t>
+    <t>Lucía Gómez Villafañe</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5491161405589</v>
+        <v>5491169779582</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BBCA9FE-DA05-4AFE-A6C6-FC5492A5C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EF211-D21C-460A-8F89-90B9367DBED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Lucía Gómez Villafañe</t>
+    <t>Pilar Gómez Villafañe</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5491169779582</v>
+        <v>54991161127436</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EF211-D21C-460A-8F89-90B9367DBED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E0975-D9BF-4C44-B936-7B3D44CBED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Pilar Gómez Villafañe</t>
+    <t>Mirela Menaldo</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>54991161127436</v>
+        <v>5491165631702</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12E0975-D9BF-4C44-B936-7B3D44CBED74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4CF228-121E-4C25-ACE6-1A20EFF2A62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Mirela Menaldo</t>
+    <t>Gustavo Glunz</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5491165631702</v>
+        <v>5491159911742</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>

--- a/assets/productos.xlsx
+++ b/assets/productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.6. Gus-Tech\API-Facebook-V1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4CF228-121E-4C25-ACE6-1A20EFF2A62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991D0DDE-417D-4301-9E8C-B9B81EBFE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E459306E-519A-4C44-842A-9DAC85B99C1A}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>nombre</t>
   </si>
   <si>
-    <t>Gustavo Glunz</t>
+    <t>Gustavo</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>5491159911742</v>
+        <v>5491161405589</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
